--- a/CashFlow/WRK_cashflow.xlsx
+++ b/CashFlow/WRK_cashflow.xlsx
@@ -792,19 +792,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>8371000000.0</v>
+        <v>61400000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>8476000000.0</v>
+        <v>21800000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>6382000000.0</v>
+        <v>-141700000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4272000000.0</v>
+        <v>-106200000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2150900000.0</v>
+        <v>-123000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-110500000.0</v>
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-44300000.0</v>
+        <v>6556000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-86400000.0</v>
+        <v>6665000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-214100000.0</v>
+        <v>5017000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>64000000.0</v>
+        <v>3647700000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>95500000.0</v>
+        <v>1924000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-93000000.0</v>
